--- a/CASUAL/LA ONT/FLORES, MARIA PATRISHA NICOLE.xlsx
+++ b/CASUAL/LA ONT/FLORES, MARIA PATRISHA NICOLE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -916,7 +916,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +959,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1023,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1083,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1149,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1212,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1310,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1804,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1862,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1928,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1984,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2059,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2102,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2168,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2224,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2667,12 +2667,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2833,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.292000000000002</v>
+        <v>28.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3490,23 +3490,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="39">
         <v>0.125</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
@@ -3515,13 +3511,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
@@ -3535,7 +3535,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3555,7 +3555,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -3575,7 +3575,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3595,7 +3595,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3615,17 +3615,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39">
-        <v>3</v>
-      </c>
+      <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -3638,17 +3634,23 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="39"/>
+      <c r="A48" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="39">
+        <v>3</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
@@ -3656,19 +3658,17 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>44927</v>
+      <c r="A49" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -3677,11 +3677,9 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
@@ -3692,69 +3690,65 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H50" s="39">
-        <v>1</v>
-      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="49">
-        <v>44970</v>
-      </c>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>44958</v>
+      </c>
       <c r="B51" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="39"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39">
+        <v>1</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49" t="s">
-        <v>52</v>
+      <c r="K51" s="49">
+        <v>44970</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39">
+        <v>2</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="39">
-        <v>3</v>
-      </c>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>56</v>
+      <c r="K52" s="49" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -3766,26 +3760,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>3</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="49">
-        <v>45018</v>
+      <c r="K53" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39">
-        <v>2</v>
-      </c>
+      <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -3795,19 +3789,23 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20" t="s">
-        <v>58</v>
+      <c r="K54" s="49">
+        <v>45018</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B55" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39">
+        <v>2</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
@@ -3817,11 +3815,13 @@
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3841,17 +3841,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="B57" s="20"/>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
-      <c r="D57" s="39">
-        <v>10</v>
-      </c>
+      <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
@@ -3861,19 +3857,21 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="39">
+        <v>10</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
@@ -3883,11 +3881,13 @@
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -3907,7 +3907,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -3927,16 +3927,18 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -3945,7 +3947,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3963,7 +3965,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3981,7 +3983,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3999,7 +4001,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4017,7 +4019,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4035,7 +4037,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4053,7 +4055,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4071,7 +4073,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4089,7 +4091,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4107,7 +4109,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4125,7 +4127,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4143,7 +4145,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4161,7 +4163,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4179,7 +4181,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4197,7 +4199,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4215,7 +4217,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4233,7 +4235,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4251,7 +4253,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4269,7 +4271,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4287,7 +4289,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4305,7 +4307,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4323,7 +4325,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4341,7 +4343,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4359,7 +4361,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4377,7 +4379,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4395,7 +4397,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4413,7 +4415,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4431,7 +4433,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4449,7 +4451,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4467,7 +4469,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4485,7 +4487,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4503,7 +4505,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4521,7 +4523,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4539,7 +4541,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4557,7 +4559,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4575,7 +4577,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4593,7 +4595,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4611,7 +4613,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4629,7 +4631,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4647,7 +4649,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4665,7 +4667,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4683,7 +4685,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4701,7 +4703,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4718,7 +4720,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>46569</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5150,20 +5154,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5330,7 +5350,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>81.709000000000003</v>
+        <v>81.584000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/CASUAL/LA ONT/FLORES, MARIA PATRISHA NICOLE.xlsx
+++ b/CASUAL/LA ONT/FLORES, MARIA PATRISHA NICOLE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-32)</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +965,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1029,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1089,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1155,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1218,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1316,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1375,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1440,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1483,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1558,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1744,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1810,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1868,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1934,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1990,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2065,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2108,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2174,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2230,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2326,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2667,12 +2673,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2839,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.167000000000002</v>
+        <v>27.842000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3577,11 +3583,15 @@
       <c r="A45" s="40">
         <v>44805</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -3617,11 +3627,15 @@
       <c r="A47" s="40">
         <v>44866</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -3658,12 +3672,14 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="20"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -3676,19 +3692,17 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>44927</v>
+      <c r="A50" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
@@ -3697,11 +3711,9 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B51" s="20"/>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
@@ -3712,69 +3724,65 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H51" s="39">
-        <v>1</v>
-      </c>
+      <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49">
-        <v>44970</v>
-      </c>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>44958</v>
+      </c>
       <c r="B52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="39">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H52" s="39"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39">
+        <v>1</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="49" t="s">
-        <v>52</v>
+      <c r="K52" s="49">
+        <v>44970</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39">
+        <v>2</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="39">
-        <v>3</v>
-      </c>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>56</v>
+      <c r="K53" s="49" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -3786,26 +3794,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>3</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="49">
-        <v>45018</v>
+      <c r="K54" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="39">
-        <v>2</v>
-      </c>
+      <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
@@ -3815,19 +3823,23 @@
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20" t="s">
-        <v>58</v>
+      <c r="K55" s="49">
+        <v>45018</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B56" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>2</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
@@ -3837,11 +3849,13 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -3861,17 +3875,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
-      <c r="D58" s="39">
-        <v>10</v>
-      </c>
+      <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
@@ -3881,19 +3891,21 @@
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B59" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C59" s="13">
         <v>1.25</v>
       </c>
-      <c r="D59" s="39"/>
+      <c r="D59" s="39">
+        <v>10</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
@@ -3903,11 +3915,13 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -3927,7 +3941,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -3947,16 +3961,18 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -3965,7 +3981,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3983,7 +3999,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4001,7 +4017,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4019,7 +4035,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4037,7 +4053,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4055,7 +4071,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4073,7 +4089,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4091,7 +4107,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4109,7 +4125,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4127,7 +4143,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4145,7 +4161,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4163,7 +4179,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4181,7 +4197,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4199,7 +4215,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4217,7 +4233,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4235,7 +4251,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4253,7 +4269,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4271,7 +4287,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4289,7 +4305,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4307,7 +4323,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4325,7 +4341,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4343,7 +4359,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4361,7 +4377,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4379,7 +4395,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4397,7 +4413,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4415,7 +4431,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4433,7 +4449,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4451,7 +4467,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4469,7 +4485,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4487,7 +4503,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4505,7 +4521,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4523,7 +4539,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4541,7 +4557,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4559,7 +4575,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4577,7 +4593,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4595,7 +4611,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4613,7 +4629,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4631,7 +4647,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4649,7 +4665,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4667,7 +4683,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4685,7 +4701,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4703,7 +4719,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4721,7 +4737,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4738,7 +4754,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>46569</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5170,20 +5188,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5293,13 +5327,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>32</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.125</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J3" s="47">
         <v>3</v>
@@ -5350,7 +5384,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>81.584000000000003</v>
+        <v>81.259</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
